--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -572,9 +572,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00%"/>
-    <numFmt numFmtId="168" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="168" formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -1026,7 +1026,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1331,10 +1331,6 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1351,7 +1347,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1359,7 +1355,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="45" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="12" fillId="45" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1367,7 +1363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -11508,12 +11504,12 @@
         <v>126</v>
       </c>
       <c r="B2" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C2" s="77" t="n">
+        <v>99</v>
+      </c>
+      <c r="C2" s="76" t="n">
         <v>67890</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11522,9 +11518,9 @@
         <v>128</v>
       </c>
       <c r="B3" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C3" s="77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76" t="n">
         <v>67890</v>
       </c>
       <c r="D3" s="75" t="s">
@@ -11536,9 +11532,9 @@
         <v>128</v>
       </c>
       <c r="B4" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C4" s="77" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="76" t="n">
         <v>67890</v>
       </c>
       <c r="D4" s="75" t="s">
@@ -11550,9 +11546,9 @@
         <v>128</v>
       </c>
       <c r="B5" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C5" s="77" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="76" t="n">
         <v>67890</v>
       </c>
       <c r="D5" s="75" t="s">
@@ -11564,12 +11560,12 @@
         <v>132</v>
       </c>
       <c r="B6" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C6" s="77" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" s="76" t="n">
         <v>67890</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11578,12 +11574,12 @@
         <v>133</v>
       </c>
       <c r="B7" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C7" s="77" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="76" t="n">
         <v>67890</v>
       </c>
-      <c r="D7" s="77" t="s">
+      <c r="D7" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11592,12 +11588,12 @@
         <v>134</v>
       </c>
       <c r="B8" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C8" s="77" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="76" t="n">
         <v>67890</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11606,12 +11602,12 @@
         <v>135</v>
       </c>
       <c r="B9" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C9" s="77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11620,12 +11616,12 @@
         <v>136</v>
       </c>
       <c r="B10" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C10" s="77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11634,12 +11630,12 @@
         <v>137</v>
       </c>
       <c r="B11" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C11" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="D11" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11648,12 +11644,12 @@
         <v>138</v>
       </c>
       <c r="B12" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C12" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="77" t="s">
+      <c r="D12" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11662,12 +11658,12 @@
         <v>139</v>
       </c>
       <c r="B13" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C13" s="77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D13" s="77" t="s">
+      <c r="D13" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11676,12 +11672,12 @@
         <v>140</v>
       </c>
       <c r="B14" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C14" s="77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11690,12 +11686,12 @@
         <v>141</v>
       </c>
       <c r="B15" s="76" t="n">
-        <v>12345</v>
-      </c>
-      <c r="C15" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="77" t="s">
+      <c r="D15" s="76" t="s">
         <v>127</v>
       </c>
     </row>
@@ -11703,7 +11699,7 @@
       <c r="A16" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11739,127 +11735,127 @@
       <c r="A1" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="81" t="n">
+      <c r="B2" s="80" t="n">
         <v>0.05</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="81" t="n">
+      <c r="B3" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="81" t="n">
+      <c r="B4" s="80" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="81" t="n">
+      <c r="B5" s="80" t="n">
         <v>0.07</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="81" t="n">
+      <c r="B6" s="80" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="81" t="n">
+      <c r="B7" s="80" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="81" t="n">
+      <c r="B8" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="81" t="n">
+      <c r="B9" s="80" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="81" t="n">
+      <c r="B10" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="81" t="n">
+      <c r="B11" s="80" t="n">
         <v>0.08</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="81" t="n">
+      <c r="B12" s="80" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="81" t="n">
+      <c r="B13" s="80" t="n">
         <v>0.09975</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="81" t="n">
+      <c r="B14" s="80" t="n">
         <v>0.06</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="81" t="n">
+      <c r="B15" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11934,7 +11930,7 @@
       <c r="A1" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="82" t="s">
         <v>160</v>
       </c>
     </row>
@@ -12043,10 +12039,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="81" t="s">
         <v>162</v>
       </c>
     </row>
@@ -12081,119 +12077,119 @@
       <c r="A1" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="78" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B2" s="80" t="n">
+      <c r="B2" s="79" t="n">
         <v>16.6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="80" t="n">
+      <c r="B3" s="79" t="n">
         <v>12.6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B4" s="80" t="n">
+      <c r="B4" s="79" t="n">
         <v>9.9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="80" t="n">
+      <c r="B5" s="79" t="n">
         <v>12.7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="80" t="n">
+      <c r="B6" s="79" t="n">
         <v>13.8</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="80" t="n">
+      <c r="B7" s="79" t="n">
         <v>38.2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="80" t="n">
+      <c r="B8" s="79" t="n">
         <v>17.1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="80" t="n">
+      <c r="B9" s="79" t="n">
         <v>37.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B10" s="80" t="n">
+      <c r="B10" s="79" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="80" t="n">
+      <c r="B11" s="79" t="n">
         <v>17.4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="80" t="n">
+      <c r="B12" s="79" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="80" t="n">
+      <c r="B13" s="79" t="n">
         <v>18.1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="80" t="n">
+      <c r="B14" s="79" t="n">
         <v>18.7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82" t="s">
+      <c r="A15" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="82" t="s">
+      <c r="B15" s="81" t="s">
         <v>165</v>
       </c>
     </row>
@@ -12225,122 +12221,122 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="85" t="n">
+      <c r="B2" s="84" t="n">
         <v>2700</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="85" t="n">
+      <c r="B3" s="84" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="85" t="n">
+      <c r="B4" s="84" t="n">
         <v>2195</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="85" t="n">
+      <c r="B5" s="84" t="n">
         <v>2075</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="85" t="n">
+      <c r="B6" s="84" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="85" t="n">
+      <c r="B7" s="84" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="85" t="n">
+      <c r="B8" s="84" t="n">
         <v>1995</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="80" t="s">
+      <c r="A9" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="85" t="n">
+      <c r="B9" s="84" t="n">
         <v>2215</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="85" t="n">
+      <c r="B10" s="84" t="n">
         <v>2300</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="85" t="n">
+      <c r="B11" s="84" t="n">
         <v>1880</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="80" t="s">
+      <c r="A12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="85" t="n">
+      <c r="B12" s="84" t="n">
         <v>1890</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="85" t="n">
+      <c r="B13" s="84" t="n">
         <v>2435</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="85" t="n">
+      <c r="B14" s="84" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="80" t="s">
+      <c r="A15" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="85" t="n">
+      <c r="B15" s="84" t="n">
         <v>3195</v>
       </c>
     </row>
@@ -12374,57 +12370,57 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="C1" s="85" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="86" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="81" t="s">
         <v>173</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>174</v>
       </c>
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="81" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="81" t="s">
         <v>175</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="81" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="81" t="s">
         <v>178</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="81" t="s">
         <v>165</v>
       </c>
     </row>

--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -461,45 +461,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alberta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">British Columbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manitoba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Brunswick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Newfoundland and Labrador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northwest Territories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nova Scotia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nunavut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ontario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prince Edward Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quebec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saskatchewan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yukon</t>
   </si>
   <si>
     <t xml:space="preserve">Source: canadadrives.ca</t>
@@ -3050,7 +3011,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="43" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="12" t="s">
         <v>84</v>
       </c>
@@ -3077,7 +3038,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="12" t="s">
         <v>63</v>
       </c>
@@ -3110,7 +3071,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="12" t="s">
         <v>11</v>
       </c>
@@ -3139,7 +3100,7 @@
       </c>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
         <v>11</v>
       </c>
@@ -3175,7 +3136,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="12" t="s">
         <v>51</v>
       </c>
@@ -3208,7 +3169,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="12" t="s">
         <v>114</v>
       </c>
@@ -11474,7 +11435,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11722,7 +11683,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11744,121 +11705,107 @@
         <v>126</v>
       </c>
       <c r="B2" s="80" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="75" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="80" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="80" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="80" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="80" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="80" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="75" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="80" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="80" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="80" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="80" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="80" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="80" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="81" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
+      <c r="B14" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="80" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="80" t="n">
-        <v>0.07</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="80" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="80" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B9" s="80" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="s">
-        <v>152</v>
-      </c>
-      <c r="B10" s="80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="80" t="n">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="80" t="n">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="80" t="n">
-        <v>0.09975</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="80" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="80" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="81" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" s="81" t="s">
-        <v>159</v>
-      </c>
-    </row>
+    </row>
+    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11884,9 +11831,9 @@
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11894,8 +11841,8 @@
     <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11915,10 +11862,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11931,119 +11878,103 @@
         <v>122</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="75" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="B2" s="75" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B3" s="75" t="n">
-        <v>187.8</v>
-      </c>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="75" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B4" s="75" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="75" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B5" s="75" t="n">
-        <v>159.1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B6" s="75" t="n">
-        <v>165.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="75" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B7" s="75" t="n">
-        <v>166</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="75" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B8" s="75" t="n">
-        <v>151.4</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="75" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B9" s="75" t="n">
-        <v>158.8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="75" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B10" s="75" t="n">
-        <v>156.1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="B11" s="75" t="n">
-        <v>161.2</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B12" s="75" t="n">
-        <v>166.4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="75" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="75" t="n">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="75" t="n">
-        <v>183.9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>162</v>
+      <c r="A13" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -12062,10 +11993,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12078,119 +12009,103 @@
         <v>122</v>
       </c>
       <c r="B1" s="78" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="79" t="s">
-        <v>145</v>
+      <c r="A2" s="75" t="s">
+        <v>128</v>
       </c>
       <c r="B2" s="79" t="n">
-        <v>16.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="79" t="s">
-        <v>146</v>
+      <c r="A3" s="75" t="s">
+        <v>132</v>
       </c>
       <c r="B3" s="79" t="n">
-        <v>12.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="79" t="s">
-        <v>147</v>
+      <c r="A4" s="75" t="s">
+        <v>133</v>
       </c>
       <c r="B4" s="79" t="n">
-        <v>9.9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="79" t="s">
-        <v>148</v>
+      <c r="A5" s="75" t="s">
+        <v>134</v>
       </c>
       <c r="B5" s="79" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="79" t="s">
-        <v>149</v>
+      <c r="A6" s="75" t="s">
+        <v>135</v>
       </c>
       <c r="B6" s="79" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="79" t="s">
-        <v>150</v>
+      <c r="A7" s="75" t="s">
+        <v>136</v>
       </c>
       <c r="B7" s="79" t="n">
-        <v>38.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="79" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="79" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="79" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" s="79" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="B12" s="79" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="81" t="s">
         <v>151</v>
       </c>
-      <c r="B8" s="79" t="n">
-        <v>17.1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="79" t="s">
+      <c r="B13" s="81" t="s">
         <v>152</v>
-      </c>
-      <c r="B9" s="79" t="n">
-        <v>37.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10" s="79" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="79" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="79" t="n">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12" s="79" t="n">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="79" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" s="79" t="n">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="79" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="79" t="n">
-        <v>18.7</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="B15" s="81" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -12212,7 +12127,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D62" activeCellId="0" sqref="D62"/>
+      <selection pane="topLeft" activeCell="F47" activeCellId="0" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12222,10 +12137,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="83" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12371,10 +12286,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="C1" s="85" t="s">
         <v>5</v>
@@ -12382,46 +12297,46 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="81" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="B2" s="81" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C2" s="86" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="81" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B3" s="81" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C3" s="81" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="81" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B4" s="81" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C4" s="81" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="81" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B5" s="81" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C5" s="81" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="271">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -463,67 +463,382 @@
     <t xml:space="preserve">Rate</t>
   </si>
   <si>
+    <t xml:space="preserve">Alabama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">California</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of Columbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii</t>
+  </si>
+  <si>
     <t xml:space="preserve">Source: canadadrives.ca</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.canadadrives.ca/blog/car-guide/car-sales-tax-across-canada</t>
   </si>
   <si>
+    <t xml:space="preserve">Idaho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puerto Rico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermont</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming</t>
+  </si>
+  <si>
     <t xml:space="preserve">cents/L</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Statistics Canada</t>
+    <t xml:space="preserve">Alabama </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alaska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arizona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arkansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">California </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colorado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connecticut </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delaware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">District of Columbia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Florida </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawaii </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Idaho </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Illinois </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kansas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentucky </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louisiana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maryland </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massachusetts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Michigan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minnesota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mississippi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missouri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebraska </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Hampshire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jersey </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Mexico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New York </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oklahoma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oregon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pennsylvania </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhode Island </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Carolina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Dakota </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tennessee </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utah </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vermont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Virginia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wisconsin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyoming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: AAA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gasprices.aaa.com/state-gas-price-averages/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cents/kWh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source: paylesspower.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://paylesspower.com/blog/electric-rates-by-state/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rebates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plugndrive.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.plugndrive.ca/electric-vehicle-incentives/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canadadrives.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statistics Canada</t>
   </si>
   <si>
     <t xml:space="preserve">https://www150.statcan.gc.ca/t1/tbl1/en/tv.action?pid=1810000101&amp;pickMembers%5B0%5D=2.2&amp;cubeTimeFrame.startMonth=01&amp;cubeTimeFrame.startYear=2023&amp;cubeTimeFrame.endMonth=06&amp;cubeTimeFrame.endYear=2023&amp;referencePeriods=20230101%2C20230601</t>
   </si>
   <si>
-    <t xml:space="preserve">cents/kWh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source: energyhub.com</t>
+    <t xml:space="preserve">Electricity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">energyhub.com</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.energyhub.org/electricity-prices/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rebates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plugndrive.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.plugndrive.ca/electric-vehicle-incentives/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canadadrives.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statistics Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">energyhub.com</t>
   </si>
 </sst>
 </file>
@@ -721,8 +1036,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5EB679"/>
-        <bgColor rgb="FF6AC391"/>
+        <fgColor rgb="FF61B573"/>
+        <bgColor rgb="FF6BC490"/>
       </patternFill>
     </fill>
     <fill>
@@ -745,8 +1060,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6AC391"/>
-        <bgColor rgb="FF7EC998"/>
+        <fgColor rgb="FF6BC490"/>
+        <bgColor rgb="FF7FC996"/>
       </patternFill>
     </fill>
     <fill>
@@ -775,14 +1090,14 @@
     </fill>
     <fill>
       <patternFill patternType="mediumGray">
-        <fgColor rgb="FF9BD1A5"/>
-        <bgColor rgb="FF95CB8C"/>
+        <fgColor rgb="FF96CB8B"/>
+        <bgColor rgb="FF9BD1A5"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF5EB679"/>
-        <bgColor rgb="FF6AC391"/>
+        <fgColor rgb="FF61B573"/>
+        <bgColor rgb="FF6BC490"/>
       </patternFill>
     </fill>
     <fill>
@@ -811,8 +1126,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF7EC998"/>
-        <bgColor rgb="FF6AC391"/>
+        <fgColor rgb="FF7FC996"/>
+        <bgColor rgb="FF6BC490"/>
       </patternFill>
     </fill>
     <fill>
@@ -835,8 +1150,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6AC391"/>
-        <bgColor rgb="FF7EC998"/>
+        <fgColor rgb="FF6BC490"/>
+        <bgColor rgb="FF7FC996"/>
       </patternFill>
     </fill>
     <fill>
@@ -847,8 +1162,8 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF7EC998"/>
-        <bgColor rgb="FF95CB8C"/>
+        <fgColor rgb="FF7FC996"/>
+        <bgColor rgb="FF96CB8B"/>
       </patternFill>
     </fill>
     <fill>
@@ -895,14 +1210,14 @@
     </fill>
     <fill>
       <patternFill patternType="darkGray">
-        <fgColor rgb="FF6AC391"/>
-        <bgColor rgb="FF5EB679"/>
+        <fgColor rgb="FF6BC490"/>
+        <bgColor rgb="FF61B573"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00A933"/>
-        <bgColor rgb="FF5EB679"/>
+        <bgColor rgb="FF61B573"/>
       </patternFill>
     </fill>
     <fill>
@@ -987,7 +1302,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1312,12 +1627,44 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="45" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="46" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1346,7 +1693,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Excel Built-in Normal" xfId="20"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="20">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -1575,6 +1922,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1593,7 +1947,7 @@
       <rgbColor rgb="FFCBE1B8"/>
       <rgbColor rgb="FFB3DAAF"/>
       <rgbColor rgb="FFB7B7B7"/>
-      <rgbColor rgb="FF7EC998"/>
+      <rgbColor rgb="FF7FC996"/>
       <rgbColor rgb="FFA2C4C9"/>
       <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FFFFF2CC"/>
@@ -1619,15 +1973,15 @@
       <rgbColor rgb="FFE6B8AF"/>
       <rgbColor rgb="FFF9D9B9"/>
       <rgbColor rgb="FF1F6EE1"/>
-      <rgbColor rgb="FF6AC391"/>
-      <rgbColor rgb="FF95CB8C"/>
+      <rgbColor rgb="FF6BC490"/>
+      <rgbColor rgb="FF96CB8B"/>
       <rgbColor rgb="FFEC9B8A"/>
       <rgbColor rgb="FFF6B26B"/>
       <rgbColor rgb="FFE06666"/>
       <rgbColor rgb="FF9DD2A6"/>
       <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FFC8E0B7"/>
-      <rgbColor rgb="FF5EB679"/>
+      <rgbColor rgb="FF61B573"/>
       <rgbColor rgb="FFECECC5"/>
       <rgbColor rgb="FFB7E1CD"/>
       <rgbColor rgb="FFB7DBB0"/>
@@ -1647,7 +2001,7 @@
   <dimension ref="A1:K1027"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11434,7 +11788,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -11680,10 +12034,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11707,6 +12061,14 @@
       <c r="B2" s="80" t="n">
         <v>0.01</v>
       </c>
+      <c r="H2" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="75" t="s">
@@ -11715,6 +12077,14 @@
       <c r="B3" s="80" t="n">
         <v>0.02</v>
       </c>
+      <c r="H3" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="75" t="s">
@@ -11723,6 +12093,14 @@
       <c r="B4" s="80" t="n">
         <v>0.03</v>
       </c>
+      <c r="H4" s="81" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="82" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="75" t="s">
@@ -11731,6 +12109,14 @@
       <c r="B5" s="80" t="n">
         <v>0.04</v>
       </c>
+      <c r="H5" s="81" t="s">
+        <v>148</v>
+      </c>
+      <c r="I5" s="82" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="75" t="s">
@@ -11739,6 +12125,14 @@
       <c r="B6" s="80" t="n">
         <v>0.05</v>
       </c>
+      <c r="H6" s="81" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" s="82" t="n">
+        <v>0.0725</v>
+      </c>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="75" t="s">
@@ -11747,6 +12141,14 @@
       <c r="B7" s="80" t="n">
         <v>0.06</v>
       </c>
+      <c r="H7" s="81" t="s">
+        <v>150</v>
+      </c>
+      <c r="I7" s="82" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="75" t="s">
@@ -11755,6 +12157,14 @@
       <c r="B8" s="80" t="n">
         <v>0.07</v>
       </c>
+      <c r="H8" s="81" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="82" t="n">
+        <v>0.0635</v>
+      </c>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="75" t="s">
@@ -11763,6 +12173,14 @@
       <c r="B9" s="80" t="n">
         <v>0.08</v>
       </c>
+      <c r="H9" s="81" t="s">
+        <v>152</v>
+      </c>
+      <c r="I9" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="82"/>
+      <c r="K9" s="81"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="75" t="s">
@@ -11771,6 +12189,14 @@
       <c r="B10" s="80" t="n">
         <v>0.09</v>
       </c>
+      <c r="H10" s="81" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J10" s="82"/>
+      <c r="K10" s="81"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="75" t="s">
@@ -11779,6 +12205,14 @@
       <c r="B11" s="80" t="n">
         <v>0.1</v>
       </c>
+      <c r="H11" s="81" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J11" s="81"/>
+      <c r="K11" s="81"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="75" t="s">
@@ -11787,6 +12221,14 @@
       <c r="B12" s="80" t="n">
         <v>0.11</v>
       </c>
+      <c r="H12" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="75" t="s">
@@ -11795,58 +12237,844 @@
       <c r="B13" s="80" t="n">
         <v>0.12</v>
       </c>
+      <c r="H13" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="I13" s="82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="81" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="81" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A14" s="83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="82" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H16" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="I16" s="82" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J16" s="82"/>
+      <c r="K16" s="81"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H17" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="I17" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J17" s="81"/>
+      <c r="K17" s="81"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="81" t="s">
+        <v>163</v>
+      </c>
+      <c r="I18" s="82" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H19" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J19" s="82"/>
+      <c r="K19" s="81"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="82" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="J20" s="81"/>
+      <c r="K20" s="81"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" s="82" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J21" s="82"/>
+      <c r="K21" s="81"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J22" s="82"/>
+      <c r="K22" s="81"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H23" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="82" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J23" s="82"/>
+      <c r="K23" s="81"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J24" s="82"/>
+      <c r="K24" s="81"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H25" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="I25" s="82" t="n">
+        <v>0.06875</v>
+      </c>
+      <c r="J25" s="81"/>
+      <c r="K25" s="81"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H26" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="I26" s="82" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H27" s="81" t="s">
+        <v>172</v>
+      </c>
+      <c r="I27" s="82" t="n">
+        <v>0.04225</v>
+      </c>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H28" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="I28" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="82"/>
+      <c r="K28" s="81"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H29" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="I29" s="82" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H30" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30" s="82" t="n">
+        <v>0.0685</v>
+      </c>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H31" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" s="82"/>
+      <c r="K31" s="81"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H32" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" s="82" t="n">
+        <v>0.06625</v>
+      </c>
+      <c r="J32" s="82"/>
+      <c r="K32" s="81"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="82" t="n">
+        <v>0.04875</v>
+      </c>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="I34" s="82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="I35" s="82" t="n">
+        <v>0.0475</v>
+      </c>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H36" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="I36" s="82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H37" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="I37" s="82" t="n">
+        <v>0.0575</v>
+      </c>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H38" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="I38" s="82" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H39" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="I39" s="82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="82"/>
+      <c r="K39" s="81"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H40" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="I40" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H41" s="81" t="s">
+        <v>186</v>
+      </c>
+      <c r="I41" s="82" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="J41" s="82"/>
+      <c r="K41" s="81"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="I42" s="82" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J42" s="82"/>
+      <c r="K42" s="81"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H43" s="81" t="s">
+        <v>188</v>
+      </c>
+      <c r="I43" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H44" s="81" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="82" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="J44" s="81"/>
+      <c r="K44" s="81"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H45" s="81" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="82" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J45" s="81"/>
+      <c r="K45" s="81"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H46" s="81" t="s">
+        <v>191</v>
+      </c>
+      <c r="I46" s="82" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="J46" s="81"/>
+      <c r="K46" s="81"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H47" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="I47" s="82" t="n">
+        <v>0.0485</v>
+      </c>
+      <c r="J47" s="81"/>
+      <c r="K47" s="81"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H48" s="81" t="s">
+        <v>193</v>
+      </c>
+      <c r="I48" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H49" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="I49" s="82" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="J49" s="81"/>
+      <c r="K49" s="81"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H50" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="I50" s="82" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="J50" s="81"/>
+      <c r="K50" s="81"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H51" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51" s="82" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="J51" s="81"/>
+      <c r="K51" s="81"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H52" s="81" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" s="82" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J52" s="81"/>
+      <c r="K52" s="81"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H53" s="81" t="s">
+        <v>198</v>
+      </c>
+      <c r="I53" s="82" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="Alabama"/>
+    <hyperlink ref="H3" r:id="rId2" display="Alaska"/>
+    <hyperlink ref="H4" r:id="rId3" display="Arizona"/>
+    <hyperlink ref="H5" r:id="rId4" display="Arkansas"/>
+    <hyperlink ref="H6" r:id="rId5" display="California"/>
+    <hyperlink ref="H7" r:id="rId6" display="Colorado"/>
+    <hyperlink ref="H8" r:id="rId7" display="Connecticut"/>
+    <hyperlink ref="H9" r:id="rId8" display="Delaware"/>
+    <hyperlink ref="H10" r:id="rId9" display="District of Columbia"/>
+    <hyperlink ref="H11" r:id="rId10" display="Florida"/>
+    <hyperlink ref="H12" r:id="rId11" display="Georgia"/>
+    <hyperlink ref="H13" r:id="rId12" display="Hawaii"/>
+    <hyperlink ref="H14" r:id="rId13" display="Idaho"/>
+    <hyperlink ref="H15" r:id="rId14" display="Illinois"/>
+    <hyperlink ref="H16" r:id="rId15" display="Indiana"/>
+    <hyperlink ref="H17" r:id="rId16" display="Iowa"/>
+    <hyperlink ref="H18" r:id="rId17" display="Kansas"/>
+    <hyperlink ref="H19" r:id="rId18" display="Kentucky"/>
+    <hyperlink ref="H20" r:id="rId19" display="Louisiana"/>
+    <hyperlink ref="H21" r:id="rId20" display="Maine"/>
+    <hyperlink ref="H22" r:id="rId21" display="Maryland"/>
+    <hyperlink ref="H23" r:id="rId22" display="Massachusetts"/>
+    <hyperlink ref="H24" r:id="rId23" display="Michigan"/>
+    <hyperlink ref="H25" r:id="rId24" display="Minnesota"/>
+    <hyperlink ref="H26" r:id="rId25" display="Mississippi"/>
+    <hyperlink ref="H27" r:id="rId26" display="Missouri"/>
+    <hyperlink ref="H28" r:id="rId27" display="Montana"/>
+    <hyperlink ref="H29" r:id="rId28" display="Nebraska"/>
+    <hyperlink ref="H30" r:id="rId29" display="Nevada"/>
+    <hyperlink ref="H31" r:id="rId30" display="New Hampshire"/>
+    <hyperlink ref="H32" r:id="rId31" display="New Jersey"/>
+    <hyperlink ref="H33" r:id="rId32" display="New Mexico"/>
+    <hyperlink ref="H34" r:id="rId33" display="New York"/>
+    <hyperlink ref="H35" r:id="rId34" display="North Carolina"/>
+    <hyperlink ref="H36" r:id="rId35" display="North Dakota"/>
+    <hyperlink ref="H37" r:id="rId36" display="Ohio"/>
+    <hyperlink ref="H38" r:id="rId37" display="Oklahoma"/>
+    <hyperlink ref="H39" r:id="rId38" display="Oregon"/>
+    <hyperlink ref="H40" r:id="rId39" display="Pennsylvania"/>
+    <hyperlink ref="H41" r:id="rId40" display="Puerto Rico"/>
+    <hyperlink ref="H42" r:id="rId41" display="Rhode Island"/>
+    <hyperlink ref="H43" r:id="rId42" display="South Carolina"/>
+    <hyperlink ref="H44" r:id="rId43" display="South Dakota"/>
+    <hyperlink ref="H45" r:id="rId44" display="Tennessee"/>
+    <hyperlink ref="H46" r:id="rId45" display="Texas"/>
+    <hyperlink ref="H47" r:id="rId46" display="Utah"/>
+    <hyperlink ref="H48" r:id="rId47" display="Vermont"/>
+    <hyperlink ref="H49" r:id="rId48" display="Virginia"/>
+    <hyperlink ref="H50" r:id="rId49" display="Washington"/>
+    <hyperlink ref="H51" r:id="rId50" display="West Virginia"/>
+    <hyperlink ref="H52" r:id="rId51" display="Wisconsin"/>
+    <hyperlink ref="H53" r:id="rId52" display="Wyoming"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -11862,10 +13090,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11877,104 +13105,583 @@
       <c r="A1" s="73" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>147</v>
-      </c>
+      <c r="B1" s="84" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="0"/>
+      <c r="H1" s="0"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="75" t="n">
-        <v>100</v>
-      </c>
+      <c r="A2" s="85" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="86" t="n">
+        <v>0.900660501981506</v>
+      </c>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="0"/>
+      <c r="H2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="75" t="n">
-        <v>101</v>
-      </c>
+      <c r="A3" s="85" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" s="86" t="n">
+        <v>1.21770145310436</v>
+      </c>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="75" t="n">
-        <v>102</v>
-      </c>
+      <c r="A4" s="85" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="86" t="n">
+        <v>1.22906208718626</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="75" t="n">
-        <v>103</v>
-      </c>
+      <c r="A5" s="85" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="86" t="n">
+        <v>0.912285336856011</v>
+      </c>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="75" t="n">
-        <v>104</v>
-      </c>
+      <c r="A6" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="86" t="n">
+        <v>1.53025099075297</v>
+      </c>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="88"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="75" t="n">
-        <v>105</v>
-      </c>
+      <c r="A7" s="85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="86" t="n">
+        <v>1.05310435931308</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="75" t="n">
-        <v>106</v>
-      </c>
+      <c r="A8" s="85" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="86" t="n">
+        <v>1.01902245706737</v>
+      </c>
+      <c r="D8" s="87"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="75" t="n">
-        <v>107</v>
-      </c>
+      <c r="A9" s="85" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="86" t="n">
+        <v>0.960105680317041</v>
+      </c>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="75" t="n">
-        <v>108</v>
-      </c>
+      <c r="A10" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="86" t="n">
+        <v>1.03276089828269</v>
+      </c>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="75" t="n">
-        <v>109</v>
-      </c>
+      <c r="A11" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="B11" s="86" t="n">
+        <v>0.965125495376486</v>
+      </c>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="75" t="n">
-        <v>110</v>
-      </c>
+      <c r="A12" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="86" t="n">
+        <v>0.882959048877147</v>
+      </c>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="81" t="s">
-        <v>148</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>149</v>
+      <c r="A13" s="85" t="s">
+        <v>211</v>
+      </c>
+      <c r="B13" s="86" t="n">
+        <v>1.2782034346103</v>
+      </c>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="85" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="86" t="n">
+        <v>1.09511228533686</v>
+      </c>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="85" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="86" t="n">
+        <v>1.03725231175694</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="88"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="85" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16" s="86" t="n">
+        <v>0.969616908850727</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="85" t="s">
+        <v>215</v>
+      </c>
+      <c r="B17" s="86" t="n">
+        <v>1.00211360634082</v>
+      </c>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" s="86" t="n">
+        <v>0.980184940554822</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="86" t="n">
+        <v>0.922589167767503</v>
+      </c>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="86" t="n">
+        <v>0.895376486129458</v>
+      </c>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21" s="86" t="n">
+        <v>1.01215323645971</v>
+      </c>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="86" t="n">
+        <v>0.970937912813738</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B23" s="86" t="n">
+        <v>0.998414795244386</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="88"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="86" t="n">
+        <v>0.972787318361955</v>
+      </c>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="B25" s="86" t="n">
+        <v>1.03091149273448</v>
+      </c>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="86" t="n">
+        <v>0.869749009247028</v>
+      </c>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="B27" s="86" t="n">
+        <v>0.963540290620872</v>
+      </c>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="86" t="n">
+        <v>1.10911492734478</v>
+      </c>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="86" t="n">
+        <v>1.01188903566711</v>
+      </c>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="88"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="85" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="86" t="n">
+        <v>1.33738441215324</v>
+      </c>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="86" t="n">
+        <v>0.985204755614267</v>
+      </c>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="88"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="86" t="n">
+        <v>0.987318361955086</v>
+      </c>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="85" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" s="86" t="n">
+        <v>1.01373844121532</v>
+      </c>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="88"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B34" s="86" t="n">
+        <v>1.03725231175694</v>
+      </c>
+      <c r="D34" s="87"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="88"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="B35" s="86" t="n">
+        <v>0.92443857331572</v>
+      </c>
+      <c r="D35" s="87"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="88"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="85" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="86" t="n">
+        <v>1.04280052840159</v>
+      </c>
+      <c r="D36" s="87"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="88"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="85" t="s">
+        <v>235</v>
+      </c>
+      <c r="B37" s="86" t="n">
+        <v>0.945046235138705</v>
+      </c>
+      <c r="D37" s="87"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="88"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="B38" s="86" t="n">
+        <v>0.987846763540291</v>
+      </c>
+      <c r="D38" s="87"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="88"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" s="86" t="n">
+        <v>1.23725231175694</v>
+      </c>
+      <c r="D39" s="87"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="88"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B40" s="86" t="n">
+        <v>1.03751651254954</v>
+      </c>
+      <c r="D40" s="87"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="B41" s="86" t="n">
+        <v>0.997093791281374</v>
+      </c>
+      <c r="D41" s="87"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="88"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="B42" s="86" t="n">
+        <v>0.898811096433289</v>
+      </c>
+      <c r="D42" s="87"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="88"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="85" t="s">
+        <v>241</v>
+      </c>
+      <c r="B43" s="86" t="n">
+        <v>1.03513870541612</v>
+      </c>
+      <c r="D43" s="87"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="88"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="B44" s="86" t="n">
+        <v>0.901717305151915</v>
+      </c>
+      <c r="D44" s="87"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="85" t="s">
+        <v>243</v>
+      </c>
+      <c r="B45" s="86" t="n">
+        <v>0.900660501981506</v>
+      </c>
+      <c r="D45" s="87"/>
+      <c r="E45" s="88"/>
+      <c r="F45" s="88"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="B46" s="86" t="n">
+        <v>1.12470277410832</v>
+      </c>
+      <c r="D46" s="87"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="88"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="B47" s="86" t="n">
+        <v>1.00924702774108</v>
+      </c>
+      <c r="D47" s="87"/>
+      <c r="E47" s="88"/>
+      <c r="F47" s="88"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="85" t="s">
+        <v>246</v>
+      </c>
+      <c r="B48" s="86" t="n">
+        <v>0.947952443857332</v>
+      </c>
+      <c r="D48" s="87"/>
+      <c r="E48" s="88"/>
+      <c r="F48" s="88"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B49" s="86" t="n">
+        <v>1.33157199471598</v>
+      </c>
+      <c r="D49" s="87"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="85" t="s">
+        <v>248</v>
+      </c>
+      <c r="B50" s="86" t="n">
+        <v>0.958784676354029</v>
+      </c>
+      <c r="D50" s="87"/>
+      <c r="E50" s="88"/>
+      <c r="F50" s="88"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B51" s="86" t="n">
+        <v>0.957199471598415</v>
+      </c>
+      <c r="D51" s="87"/>
+      <c r="E51" s="88"/>
+      <c r="F51" s="88"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="85" t="s">
+        <v>250</v>
+      </c>
+      <c r="B52" s="86" t="n">
+        <v>1.0449141347424</v>
+      </c>
+      <c r="D52" s="87"/>
+      <c r="E52" s="88"/>
+      <c r="F52" s="88"/>
+      <c r="G52" s="88"/>
+      <c r="H52" s="88"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -11993,10 +13700,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12009,103 +13716,627 @@
         <v>122</v>
       </c>
       <c r="B1" s="78" t="s">
+        <v>253</v>
+      </c>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="89" t="n">
+        <v>14.36</v>
+      </c>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="90"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" s="89" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="90"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="89" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="90"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="89" t="n">
+        <v>11.42</v>
+      </c>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="90"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="89" t="n">
+        <v>26.45</v>
+      </c>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="90"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="89" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="75" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="79" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="79" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="79" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="B5" s="79" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="79" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="75" t="s">
-        <v>136</v>
-      </c>
-      <c r="B7" s="79" t="n">
-        <v>15</v>
-      </c>
+      <c r="B7" s="89" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="90"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="75" t="s">
-        <v>137</v>
-      </c>
-      <c r="B8" s="79" t="n">
-        <v>16</v>
-      </c>
+      <c r="A8" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="89" t="n">
+        <v>30.24</v>
+      </c>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="79" t="n">
-        <v>17</v>
-      </c>
+      <c r="A9" s="89" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="89" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="90"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" s="79" t="n">
-        <v>18</v>
-      </c>
+      <c r="A10" s="89" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="89" t="n">
+        <v>14.91</v>
+      </c>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="90"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="75" t="s">
-        <v>140</v>
-      </c>
-      <c r="B11" s="79" t="n">
-        <v>19</v>
-      </c>
+      <c r="A11" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="89" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="75" t="s">
-        <v>141</v>
-      </c>
-      <c r="B12" s="79" t="n">
-        <v>20</v>
-      </c>
+      <c r="A12" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="89" t="n">
+        <v>12.87</v>
+      </c>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="81" t="s">
-        <v>151</v>
-      </c>
-      <c r="B13" s="81" t="s">
-        <v>152</v>
+      <c r="A13" s="89" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13" s="89" t="n">
+        <v>44.96</v>
+      </c>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="82"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="89" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="90"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" s="89" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="90"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="89" t="n">
+        <v>15.43</v>
+      </c>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="90"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="89" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="82"/>
+      <c r="K17" s="90"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="B18" s="89" t="n">
+        <v>12.97</v>
+      </c>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="90"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="89" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="89" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="90"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="89" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="89" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="82"/>
+      <c r="K20" s="90"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21" s="89" t="n">
+        <v>24.12</v>
+      </c>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="82"/>
+      <c r="K21" s="90"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="89" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="90"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="89" t="n">
+        <v>31.71</v>
+      </c>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="82"/>
+      <c r="K23" s="90"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="89" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="82"/>
+      <c r="K24" s="90"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="B25" s="89" t="n">
+        <v>13.08</v>
+      </c>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="90"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="89" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="82"/>
+      <c r="K26" s="90"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="89" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="90"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="89" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="89" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="82"/>
+      <c r="K28" s="90"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="89" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="90"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="89" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="90"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="89" t="n">
+        <v>31.72</v>
+      </c>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="90"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="89" t="n">
+        <v>16.92</v>
+      </c>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="82"/>
+      <c r="K32" s="90"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="89" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="90"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="89" t="n">
+        <v>23.57</v>
+      </c>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="82"/>
+      <c r="K34" s="90"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35" s="89" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="82"/>
+      <c r="K35" s="90"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="89" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36" s="89" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="82"/>
+      <c r="K36" s="90"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" s="89" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="82"/>
+      <c r="K37" s="90"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="89" t="n">
+        <v>10.96</v>
+      </c>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="82"/>
+      <c r="K38" s="90"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="89" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="89" t="n">
+        <v>12.04</v>
+      </c>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="82"/>
+      <c r="K39" s="90"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="89" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="89" t="n">
+        <v>17.99</v>
+      </c>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="82"/>
+      <c r="K40" s="90"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="89" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="82"/>
+      <c r="K41" s="90"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="89" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="89" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="82"/>
+      <c r="K42" s="90"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" s="89" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="82"/>
+      <c r="K43" s="90"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="B44" s="89" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="H44" s="89"/>
+      <c r="I44" s="89"/>
+      <c r="J44" s="82"/>
+      <c r="K44" s="90"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" s="89" t="n">
+        <v>14.18</v>
+      </c>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="82"/>
+      <c r="K45" s="90"/>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="89" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="89" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="82"/>
+      <c r="K46" s="90"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="89" t="n">
+        <v>19.95</v>
+      </c>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="82"/>
+      <c r="K47" s="90"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="89" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="90"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="89" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="89" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="82"/>
+      <c r="K49" s="90"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="89" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="89" t="n">
+        <v>13.09</v>
+      </c>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="82"/>
+      <c r="K50" s="90"/>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="89" t="s">
+        <v>197</v>
+      </c>
+      <c r="B51" s="89" t="n">
+        <v>16.05</v>
+      </c>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="82"/>
+      <c r="K51" s="90"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="89" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="89" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="I52" s="81"/>
+      <c r="J52" s="82"/>
+      <c r="K52" s="90"/>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="83" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" s="83" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -12136,18 +14367,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="B1" s="83" t="s">
-        <v>154</v>
+      <c r="A1" s="91" t="s">
+        <v>256</v>
+      </c>
+      <c r="B1" s="91" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="79" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="84" t="n">
+      <c r="B2" s="92" t="n">
         <v>2700</v>
       </c>
     </row>
@@ -12155,7 +14386,7 @@
       <c r="A3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="84" t="n">
+      <c r="B3" s="92" t="n">
         <v>1800</v>
       </c>
     </row>
@@ -12163,7 +14394,7 @@
       <c r="A4" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="84" t="n">
+      <c r="B4" s="92" t="n">
         <v>2195</v>
       </c>
     </row>
@@ -12171,7 +14402,7 @@
       <c r="A5" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="84" t="n">
+      <c r="B5" s="92" t="n">
         <v>2075</v>
       </c>
     </row>
@@ -12179,7 +14410,7 @@
       <c r="A6" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="84" t="n">
+      <c r="B6" s="92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12187,7 +14418,7 @@
       <c r="A7" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="84" t="n">
+      <c r="B7" s="92" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -12195,7 +14426,7 @@
       <c r="A8" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="84" t="n">
+      <c r="B8" s="92" t="n">
         <v>1995</v>
       </c>
     </row>
@@ -12203,7 +14434,7 @@
       <c r="A9" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="84" t="n">
+      <c r="B9" s="92" t="n">
         <v>2215</v>
       </c>
     </row>
@@ -12211,7 +14442,7 @@
       <c r="A10" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="84" t="n">
+      <c r="B10" s="92" t="n">
         <v>2300</v>
       </c>
     </row>
@@ -12219,7 +14450,7 @@
       <c r="A11" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="84" t="n">
+      <c r="B11" s="92" t="n">
         <v>1880</v>
       </c>
     </row>
@@ -12227,7 +14458,7 @@
       <c r="A12" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="84" t="n">
+      <c r="B12" s="92" t="n">
         <v>1890</v>
       </c>
     </row>
@@ -12235,7 +14466,7 @@
       <c r="A13" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="84" t="n">
+      <c r="B13" s="92" t="n">
         <v>2435</v>
       </c>
     </row>
@@ -12243,7 +14474,7 @@
       <c r="A14" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="84" t="n">
+      <c r="B14" s="92" t="n">
         <v>2000</v>
       </c>
     </row>
@@ -12251,7 +14482,7 @@
       <c r="A15" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="84" t="n">
+      <c r="B15" s="92" t="n">
         <v>3195</v>
       </c>
     </row>
@@ -12285,58 +14516,58 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="85" t="s">
-        <v>155</v>
-      </c>
-      <c r="B1" s="85" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="85" t="s">
+      <c r="A1" s="93" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" s="93" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="81" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="81" t="s">
+      <c r="A2" s="83" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="83" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="94" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="83" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3" s="83" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="86" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="81" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="81" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>149</v>
+      <c r="A4" s="83" t="s">
+        <v>265</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="B5" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="C5" s="81" t="s">
-        <v>152</v>
+      <c r="A5" s="83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>269</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="273">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -424,37 +424,25 @@
     <t xml:space="preserve">If MSRP below...</t>
   </si>
   <si>
-    <t xml:space="preserve">Condition</t>
-  </si>
-  <si>
     <t xml:space="preserve">Federal</t>
   </si>
   <si>
+    <t xml:space="preserve">USA 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA 7</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA 7</t>
   </si>
   <si>
     <t xml:space="preserve">USA 8</t>
@@ -1511,7 +1499,7 @@
   </sheetPr>
   <dimension ref="A1:K1039"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E88" activeCellId="0" sqref="E88"/>
     </sheetView>
   </sheetViews>
@@ -6487,10 +6475,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6498,7 +6486,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="22.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6511,13 +6499,10 @@
       <c r="C1" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" s="25" t="n">
         <v>99</v>
@@ -6525,13 +6510,10 @@
       <c r="C2" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B3" s="25" t="n">
         <v>1</v>
@@ -6539,13 +6521,10 @@
       <c r="C3" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D3" s="24" t="s">
-        <v>136</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" s="25" t="n">
         <v>2</v>
@@ -6553,13 +6532,10 @@
       <c r="C4" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>137</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="25" t="n">
         <v>3</v>
@@ -6567,13 +6543,10 @@
       <c r="C5" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B6" s="25" t="n">
         <v>4</v>
@@ -6581,13 +6554,10 @@
       <c r="C6" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B7" s="25" t="n">
         <v>5</v>
@@ -6595,13 +6565,10 @@
       <c r="C7" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B8" s="25" t="n">
         <v>6</v>
@@ -6609,114 +6576,90 @@
       <c r="C8" s="25" t="n">
         <v>67890</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B9" s="25" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B10" s="25" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B11" s="25" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B12" s="25" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B13" s="25" t="n">
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14" s="25" t="n">
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B15" s="25" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6752,12 +6695,12 @@
         <v>129</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2" s="29" t="n">
         <v>0.09237</v>
@@ -6769,7 +6712,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" s="29" t="n">
         <v>0.01813</v>
@@ -6781,7 +6724,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="29" t="n">
         <v>0.08371</v>
@@ -6793,7 +6736,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="29" t="n">
         <v>0.09443</v>
@@ -6805,7 +6748,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B6" s="29" t="n">
         <v>0.08851</v>
@@ -6817,7 +6760,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B7" s="29" t="n">
         <v>0.07791</v>
@@ -6829,7 +6772,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B8" s="29" t="n">
         <v>0.0635</v>
@@ -6841,7 +6784,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="29" t="n">
         <v>0</v>
@@ -6853,7 +6796,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="29" t="n">
         <v>0.06</v>
@@ -6865,7 +6808,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B11" s="29" t="n">
         <v>0.07019</v>
@@ -6877,7 +6820,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B12" s="29" t="n">
         <v>0.07394</v>
@@ -6889,7 +6832,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" s="29" t="n">
         <v>0.04443</v>
@@ -6901,7 +6844,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="29" t="n">
         <v>0.06021</v>
@@ -6913,7 +6856,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B15" s="29" t="n">
         <v>0.08838</v>
@@ -6925,7 +6868,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B16" s="29" t="n">
         <v>0.07</v>
@@ -6937,7 +6880,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="29" t="n">
         <v>0.06934</v>
@@ -6949,7 +6892,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B18" s="29" t="n">
         <v>0.0875</v>
@@ -6961,7 +6904,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B19" s="29" t="n">
         <v>0.06</v>
@@ -6973,7 +6916,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B20" s="29" t="n">
         <v>0.09547</v>
@@ -6985,7 +6928,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B21" s="29" t="n">
         <v>0.055</v>
@@ -6997,7 +6940,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" s="29" t="n">
         <v>0.06</v>
@@ -7009,7 +6952,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23" s="29" t="n">
         <v>0.0625</v>
@@ -7021,7 +6964,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B24" s="29" t="n">
         <v>0.06</v>
@@ -7033,7 +6976,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B25" s="29" t="n">
         <v>0.07523</v>
@@ -7045,7 +6988,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="29" t="n">
         <v>0.07062</v>
@@ -7057,7 +7000,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B27" s="29" t="n">
         <v>0.08362</v>
@@ -7069,7 +7012,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B28" s="29" t="n">
         <v>0</v>
@@ -7081,7 +7024,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B29" s="29" t="n">
         <v>0.06971</v>
@@ -7093,7 +7036,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B30" s="29" t="n">
         <v>0.08236</v>
@@ -7105,7 +7048,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B31" s="29" t="n">
         <v>0</v>
@@ -7117,7 +7060,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B32" s="29" t="n">
         <v>0.06601</v>
@@ -7129,7 +7072,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B33" s="29" t="n">
         <v>0.07601</v>
@@ -7141,7 +7084,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B34" s="29" t="n">
         <v>0.08532</v>
@@ -7153,7 +7096,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B35" s="29" t="n">
         <v>0.06996</v>
@@ -7165,7 +7108,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B36" s="29" t="n">
         <v>0.07038</v>
@@ -7177,7 +7120,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B37" s="29" t="n">
         <v>0.07238</v>
@@ -7189,7 +7132,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B38" s="29" t="n">
         <v>0.08986</v>
@@ -7201,7 +7144,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B39" s="29" t="n">
         <v>0</v>
@@ -7213,7 +7156,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B40" s="29" t="n">
         <v>0.06341</v>
@@ -7225,7 +7168,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B41" s="29" t="n">
         <v>0.07</v>
@@ -7237,7 +7180,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B42" s="29" t="n">
         <v>0.07499</v>
@@ -7249,7 +7192,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B43" s="29" t="n">
         <v>0.06108</v>
@@ -7261,7 +7204,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B44" s="29" t="n">
         <v>0.09548</v>
@@ -7273,7 +7216,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B45" s="29" t="n">
         <v>0.08198</v>
@@ -7285,7 +7228,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B46" s="29" t="n">
         <v>0.07198</v>
@@ -7297,7 +7240,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B47" s="29" t="n">
         <v>0.06359</v>
@@ -7309,7 +7252,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B48" s="29" t="n">
         <v>0.05767</v>
@@ -7321,7 +7264,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B49" s="29" t="n">
         <v>0.09397</v>
@@ -7333,7 +7276,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B50" s="29" t="n">
         <v>0.06566</v>
@@ -7345,7 +7288,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51" s="29" t="n">
         <v>0.05429</v>
@@ -7357,7 +7300,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B52" s="29" t="n">
         <v>0.05441</v>
@@ -7369,10 +7312,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7407,14 +7350,14 @@
         <v>129</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" s="33" t="n">
         <v>0.900660501981506</v>
@@ -7427,7 +7370,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B3" s="33" t="n">
         <v>1.21770145310436</v>
@@ -7438,7 +7381,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B4" s="33" t="n">
         <v>1.22906208718626</v>
@@ -7449,7 +7392,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B5" s="33" t="n">
         <v>0.912285336856011</v>
@@ -7460,7 +7403,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="28" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B6" s="33" t="n">
         <v>1.53025099075297</v>
@@ -7471,7 +7414,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="28" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B7" s="33" t="n">
         <v>1.05310435931308</v>
@@ -7482,7 +7425,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="28" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B8" s="33" t="n">
         <v>1.01902245706737</v>
@@ -7493,7 +7436,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B9" s="33" t="n">
         <v>0.960105680317041</v>
@@ -7504,7 +7447,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B10" s="33" t="n">
         <v>1.03276089828269</v>
@@ -7515,7 +7458,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B11" s="33" t="n">
         <v>0.965125495376486</v>
@@ -7526,7 +7469,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B12" s="33" t="n">
         <v>0.882959048877147</v>
@@ -7537,7 +7480,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B13" s="33" t="n">
         <v>1.2782034346103</v>
@@ -7548,7 +7491,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B14" s="33" t="n">
         <v>1.09511228533686</v>
@@ -7559,7 +7502,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B15" s="33" t="n">
         <v>1.03725231175694</v>
@@ -7570,7 +7513,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B16" s="33" t="n">
         <v>0.969616908850727</v>
@@ -7581,7 +7524,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B17" s="33" t="n">
         <v>1.00211360634082</v>
@@ -7592,7 +7535,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B18" s="33" t="n">
         <v>0.980184940554822</v>
@@ -7603,7 +7546,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B19" s="33" t="n">
         <v>0.922589167767503</v>
@@ -7614,7 +7557,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B20" s="33" t="n">
         <v>0.895376486129458</v>
@@ -7625,7 +7568,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B21" s="33" t="n">
         <v>1.01215323645971</v>
@@ -7636,7 +7579,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B22" s="33" t="n">
         <v>0.970937912813738</v>
@@ -7647,7 +7590,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B23" s="33" t="n">
         <v>0.998414795244386</v>
@@ -7658,7 +7601,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B24" s="33" t="n">
         <v>0.972787318361955</v>
@@ -7669,7 +7612,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="28" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B25" s="33" t="n">
         <v>1.03091149273448</v>
@@ -7680,7 +7623,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B26" s="33" t="n">
         <v>0.869749009247028</v>
@@ -7691,7 +7634,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B27" s="33" t="n">
         <v>0.963540290620872</v>
@@ -7702,7 +7645,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B28" s="33" t="n">
         <v>1.10911492734478</v>
@@ -7713,7 +7656,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B29" s="33" t="n">
         <v>1.01188903566711</v>
@@ -7724,7 +7667,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B30" s="33" t="n">
         <v>1.33738441215324</v>
@@ -7735,7 +7678,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B31" s="33" t="n">
         <v>0.985204755614267</v>
@@ -7746,7 +7689,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B32" s="33" t="n">
         <v>0.987318361955086</v>
@@ -7757,7 +7700,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B33" s="33" t="n">
         <v>1.01373844121532</v>
@@ -7768,7 +7711,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B34" s="33" t="n">
         <v>1.03725231175694</v>
@@ -7779,7 +7722,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B35" s="33" t="n">
         <v>0.92443857331572</v>
@@ -7790,7 +7733,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B36" s="33" t="n">
         <v>1.04280052840159</v>
@@ -7801,7 +7744,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B37" s="33" t="n">
         <v>0.945046235138705</v>
@@ -7812,7 +7755,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B38" s="33" t="n">
         <v>0.987846763540291</v>
@@ -7823,7 +7766,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="28" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B39" s="33" t="n">
         <v>1.23725231175694</v>
@@ -7834,7 +7777,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B40" s="33" t="n">
         <v>1.03751651254954</v>
@@ -7845,7 +7788,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B41" s="33" t="n">
         <v>0.997093791281374</v>
@@ -7856,7 +7799,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B42" s="33" t="n">
         <v>0.898811096433289</v>
@@ -7867,7 +7810,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B43" s="33" t="n">
         <v>1.03513870541612</v>
@@ -7878,7 +7821,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B44" s="33" t="n">
         <v>0.901717305151915</v>
@@ -7889,7 +7832,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B45" s="33" t="n">
         <v>0.900660501981506</v>
@@ -7900,7 +7843,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B46" s="33" t="n">
         <v>1.12470277410832</v>
@@ -7911,7 +7854,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B47" s="33" t="n">
         <v>1.00924702774108</v>
@@ -7922,7 +7865,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B48" s="33" t="n">
         <v>0.947952443857332</v>
@@ -7933,7 +7876,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B49" s="33" t="n">
         <v>1.33157199471598</v>
@@ -7944,7 +7887,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B50" s="33" t="n">
         <v>0.958784676354029</v>
@@ -7955,7 +7898,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B51" s="33" t="n">
         <v>0.957199471598415</v>
@@ -7966,7 +7909,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B52" s="33" t="n">
         <v>1.0449141347424</v>
@@ -7979,10 +7922,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8017,14 +7960,14 @@
         <v>129</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="35" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B2" s="35" t="n">
         <v>14.36</v>
@@ -8036,7 +7979,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" s="35" t="n">
         <v>21.9</v>
@@ -8048,7 +7991,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="35" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B4" s="35" t="n">
         <v>12.62</v>
@@ -8060,7 +8003,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="35" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B5" s="35" t="n">
         <v>11.42</v>
@@ -8072,7 +8015,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B6" s="35" t="n">
         <v>26.45</v>
@@ -8084,7 +8027,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="35" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B7" s="35" t="n">
         <v>14.2</v>
@@ -8096,7 +8039,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="35" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B8" s="35" t="n">
         <v>30.24</v>
@@ -8108,7 +8051,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B9" s="35" t="n">
         <v>14.18</v>
@@ -8120,7 +8063,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B10" s="35" t="n">
         <v>14.91</v>
@@ -8132,7 +8075,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="35" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B11" s="35" t="n">
         <v>15.01</v>
@@ -8144,7 +8087,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B12" s="35" t="n">
         <v>12.87</v>
@@ -8156,7 +8099,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="35" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13" s="35" t="n">
         <v>44.96</v>
@@ -8167,7 +8110,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="35" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" s="35" t="n">
         <v>10.58</v>
@@ -8179,7 +8122,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="35" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B15" s="35" t="n">
         <v>16.04</v>
@@ -8191,7 +8134,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B16" s="35" t="n">
         <v>15.43</v>
@@ -8203,7 +8146,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="35" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="35" t="n">
         <v>11.3</v>
@@ -8215,7 +8158,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B18" s="35" t="n">
         <v>12.97</v>
@@ -8227,7 +8170,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="35" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B19" s="35" t="n">
         <v>12.68</v>
@@ -8239,7 +8182,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="35" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B20" s="35" t="n">
         <v>11.94</v>
@@ -8251,7 +8194,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="35" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B21" s="35" t="n">
         <v>24.12</v>
@@ -8263,7 +8206,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="35" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" s="35" t="n">
         <v>15.87</v>
@@ -8275,7 +8218,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="35" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B23" s="35" t="n">
         <v>31.71</v>
@@ -8287,7 +8230,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="35" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B24" s="35" t="n">
         <v>17.99</v>
@@ -8299,7 +8242,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="35" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B25" s="35" t="n">
         <v>13.08</v>
@@ -8311,7 +8254,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="35" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B26" s="35" t="n">
         <v>13.18</v>
@@ -8323,7 +8266,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="35" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B27" s="35" t="n">
         <v>10.73</v>
@@ -8335,7 +8278,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="35" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B28" s="35" t="n">
         <v>10.73</v>
@@ -8347,7 +8290,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B29" s="35" t="n">
         <v>9.35</v>
@@ -8359,7 +8302,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="35" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B30" s="35" t="n">
         <v>16.81</v>
@@ -8371,7 +8314,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="35" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B31" s="35" t="n">
         <v>31.72</v>
@@ -8383,7 +8326,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B32" s="35" t="n">
         <v>16.92</v>
@@ -8395,7 +8338,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="35" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B33" s="35" t="n">
         <v>13.53</v>
@@ -8407,7 +8350,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="35" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B34" s="35" t="n">
         <v>23.57</v>
@@ -8419,7 +8362,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="35" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B35" s="35" t="n">
         <v>12.67</v>
@@ -8431,7 +8374,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="35" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B36" s="35" t="n">
         <v>9.91</v>
@@ -8443,7 +8386,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="35" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B37" s="35" t="n">
         <v>14.31</v>
@@ -8455,7 +8398,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="35" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B38" s="35" t="n">
         <v>10.96</v>
@@ -8467,7 +8410,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="35" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B39" s="35" t="n">
         <v>12.04</v>
@@ -8479,7 +8422,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="35" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B40" s="35" t="n">
         <v>17.99</v>
@@ -8491,7 +8434,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="35" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B41" s="35" t="n">
         <v>28.96</v>
@@ -8503,7 +8446,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="35" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B42" s="35" t="n">
         <v>13.99</v>
@@ -8515,7 +8458,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="35" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B43" s="35" t="n">
         <v>11.25</v>
@@ -8527,7 +8470,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B44" s="35" t="n">
         <v>12.11</v>
@@ -8539,7 +8482,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B45" s="35" t="n">
         <v>14.18</v>
@@ -8551,7 +8494,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B46" s="35" t="n">
         <v>10.66</v>
@@ -8563,7 +8506,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="35" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B47" s="35" t="n">
         <v>19.95</v>
@@ -8575,7 +8518,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B48" s="35" t="n">
         <v>14.03</v>
@@ -8587,7 +8530,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B49" s="35" t="n">
         <v>10.48</v>
@@ -8599,7 +8542,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="35" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B50" s="35" t="n">
         <v>13.09</v>
@@ -8611,7 +8554,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="35" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51" s="35" t="n">
         <v>16.05</v>
@@ -8623,7 +8566,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B52" s="35" t="n">
         <v>10.28</v>
@@ -8634,10 +8577,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -8669,10 +8612,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="37" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8840,10 +8783,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="39" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C1" s="39" t="s">
         <v>5</v>
@@ -8851,46 +8794,46 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="28" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C2" s="40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="28" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="28" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="273">
   <si>
     <t xml:space="preserve">Make</t>
   </si>
@@ -442,10 +442,10 @@
     <t xml:space="preserve">USA 7</t>
   </si>
   <si>
+    <t xml:space="preserve">USA 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USA 8</t>
   </si>
   <si>
     <t xml:space="preserve">USA 9</t>
@@ -1500,7 +1500,7 @@
   <dimension ref="A1:K1039"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E88" activeCellId="0" sqref="E88"/>
+      <selection pane="topLeft" activeCell="E88" activeCellId="1" sqref="C9 E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6478,7 +6478,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6584,19 +6584,19 @@
       <c r="B9" s="25" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="25" t="s">
-        <v>138</v>
+      <c r="C9" s="25" t="n">
+        <v>67890</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B10" s="25" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,7 +6607,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6618,7 +6618,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6629,7 +6629,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6640,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6651,7 +6651,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6681,7 +6681,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+      <selection pane="topLeft" activeCell="A11" activeCellId="1" sqref="C9 A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7337,7 +7337,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+      <selection pane="topLeft" activeCell="K13" activeCellId="1" sqref="C9 K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7947,7 +7947,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="1" sqref="C9 H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8602,7 +8602,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="1" sqref="C9 C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8771,7 +8771,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="C9 B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -805,13 +805,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="166" formatCode="[$$-1009]#,##0.00;[RED]\-[$$-1009]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0%"/>
     <numFmt numFmtId="168" formatCode="0.00%"/>
     <numFmt numFmtId="169" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="170" formatCode="0.00"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -995,7 +996,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1124,8 +1125,12 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -6462,7 +6467,7 @@
   </sheetPr>
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -7747,8 +7752,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K13" activeCellId="0" sqref="K13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7771,9 +7776,10 @@
         <v>200</v>
       </c>
       <c r="B2" s="32" t="n">
-        <v>0.900660501981506</v>
-      </c>
-      <c r="D2" s="33"/>
+        <v>90.0660501981506</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="1"/>
@@ -7784,9 +7790,10 @@
         <v>201</v>
       </c>
       <c r="B3" s="32" t="n">
-        <v>1.21770145310436</v>
-      </c>
-      <c r="D3" s="33"/>
+        <v>121.770145310436</v>
+      </c>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
@@ -7795,9 +7802,10 @@
         <v>202</v>
       </c>
       <c r="B4" s="32" t="n">
-        <v>1.22906208718626</v>
-      </c>
-      <c r="D4" s="33"/>
+        <v>122.906208718626</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
     </row>
@@ -7806,9 +7814,10 @@
         <v>203</v>
       </c>
       <c r="B5" s="32" t="n">
-        <v>0.912285336856011</v>
-      </c>
-      <c r="D5" s="33"/>
+        <v>91.2285336856011</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
@@ -7817,9 +7826,10 @@
         <v>204</v>
       </c>
       <c r="B6" s="32" t="n">
-        <v>1.53025099075297</v>
-      </c>
-      <c r="D6" s="33"/>
+        <v>153.025099075297</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
     </row>
@@ -7828,9 +7838,10 @@
         <v>205</v>
       </c>
       <c r="B7" s="32" t="n">
-        <v>1.05310435931308</v>
-      </c>
-      <c r="D7" s="33"/>
+        <v>105.310435931308</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
@@ -7839,9 +7850,10 @@
         <v>206</v>
       </c>
       <c r="B8" s="32" t="n">
-        <v>1.01902245706737</v>
-      </c>
-      <c r="D8" s="33"/>
+        <v>101.902245706737</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
     </row>
@@ -7850,9 +7862,10 @@
         <v>207</v>
       </c>
       <c r="B9" s="32" t="n">
-        <v>0.960105680317041</v>
-      </c>
-      <c r="D9" s="33"/>
+        <v>96.0105680317041</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
     </row>
@@ -7861,9 +7874,10 @@
         <v>208</v>
       </c>
       <c r="B10" s="32" t="n">
-        <v>1.03276089828269</v>
-      </c>
-      <c r="D10" s="33"/>
+        <v>103.276089828269</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
     </row>
@@ -7872,9 +7886,10 @@
         <v>209</v>
       </c>
       <c r="B11" s="32" t="n">
-        <v>0.965125495376486</v>
-      </c>
-      <c r="D11" s="33"/>
+        <v>96.5125495376486</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
     </row>
@@ -7883,9 +7898,10 @@
         <v>210</v>
       </c>
       <c r="B12" s="32" t="n">
-        <v>0.882959048877147</v>
-      </c>
-      <c r="D12" s="33"/>
+        <v>88.2959048877147</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
     </row>
@@ -7894,9 +7910,10 @@
         <v>211</v>
       </c>
       <c r="B13" s="32" t="n">
-        <v>1.2782034346103</v>
-      </c>
-      <c r="D13" s="33"/>
+        <v>127.82034346103</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
@@ -7905,9 +7922,10 @@
         <v>212</v>
       </c>
       <c r="B14" s="32" t="n">
-        <v>1.09511228533686</v>
-      </c>
-      <c r="D14" s="33"/>
+        <v>109.511228533686</v>
+      </c>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
@@ -7916,9 +7934,10 @@
         <v>213</v>
       </c>
       <c r="B15" s="32" t="n">
-        <v>1.03725231175694</v>
-      </c>
-      <c r="D15" s="33"/>
+        <v>103.725231175694</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
     </row>
@@ -7927,9 +7946,10 @@
         <v>214</v>
       </c>
       <c r="B16" s="32" t="n">
-        <v>0.969616908850727</v>
-      </c>
-      <c r="D16" s="33"/>
+        <v>96.9616908850727</v>
+      </c>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
@@ -7938,9 +7958,10 @@
         <v>215</v>
       </c>
       <c r="B17" s="32" t="n">
-        <v>1.00211360634082</v>
-      </c>
-      <c r="D17" s="33"/>
+        <v>100.211360634082</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
@@ -7949,9 +7970,10 @@
         <v>216</v>
       </c>
       <c r="B18" s="32" t="n">
-        <v>0.980184940554822</v>
-      </c>
-      <c r="D18" s="33"/>
+        <v>98.0184940554822</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
@@ -7960,9 +7982,10 @@
         <v>217</v>
       </c>
       <c r="B19" s="32" t="n">
-        <v>0.922589167767503</v>
-      </c>
-      <c r="D19" s="33"/>
+        <v>92.2589167767503</v>
+      </c>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
     </row>
@@ -7971,9 +7994,10 @@
         <v>218</v>
       </c>
       <c r="B20" s="32" t="n">
-        <v>0.895376486129458</v>
-      </c>
-      <c r="D20" s="33"/>
+        <v>89.5376486129458</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
       <c r="E20" s="13"/>
       <c r="F20" s="13"/>
     </row>
@@ -7982,9 +8006,10 @@
         <v>219</v>
       </c>
       <c r="B21" s="32" t="n">
-        <v>1.01215323645971</v>
-      </c>
-      <c r="D21" s="33"/>
+        <v>101.215323645971</v>
+      </c>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
     </row>
@@ -7993,9 +8018,10 @@
         <v>220</v>
       </c>
       <c r="B22" s="32" t="n">
-        <v>0.970937912813738</v>
-      </c>
-      <c r="D22" s="33"/>
+        <v>97.0937912813738</v>
+      </c>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="13"/>
       <c r="F22" s="13"/>
     </row>
@@ -8004,9 +8030,10 @@
         <v>221</v>
       </c>
       <c r="B23" s="32" t="n">
-        <v>0.998414795244386</v>
-      </c>
-      <c r="D23" s="33"/>
+        <v>99.8414795244386</v>
+      </c>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
     </row>
@@ -8015,9 +8042,10 @@
         <v>222</v>
       </c>
       <c r="B24" s="32" t="n">
-        <v>0.972787318361955</v>
-      </c>
-      <c r="D24" s="33"/>
+        <v>97.2787318361955</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
@@ -8026,9 +8054,10 @@
         <v>223</v>
       </c>
       <c r="B25" s="32" t="n">
-        <v>1.03091149273448</v>
-      </c>
-      <c r="D25" s="33"/>
+        <v>103.091149273448</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="13"/>
       <c r="F25" s="13"/>
     </row>
@@ -8037,9 +8066,10 @@
         <v>224</v>
       </c>
       <c r="B26" s="32" t="n">
-        <v>0.869749009247028</v>
-      </c>
-      <c r="D26" s="33"/>
+        <v>86.9749009247028</v>
+      </c>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
     </row>
@@ -8048,9 +8078,10 @@
         <v>225</v>
       </c>
       <c r="B27" s="32" t="n">
-        <v>0.963540290620872</v>
-      </c>
-      <c r="D27" s="33"/>
+        <v>96.3540290620872</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
@@ -8059,9 +8090,10 @@
         <v>226</v>
       </c>
       <c r="B28" s="32" t="n">
-        <v>1.10911492734478</v>
-      </c>
-      <c r="D28" s="33"/>
+        <v>110.911492734478</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
     </row>
@@ -8070,9 +8102,10 @@
         <v>227</v>
       </c>
       <c r="B29" s="32" t="n">
-        <v>1.01188903566711</v>
-      </c>
-      <c r="D29" s="33"/>
+        <v>101.188903566711</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
     </row>
@@ -8081,9 +8114,10 @@
         <v>228</v>
       </c>
       <c r="B30" s="32" t="n">
-        <v>1.33738441215324</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>133.738441215324</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
     </row>
@@ -8092,9 +8126,10 @@
         <v>229</v>
       </c>
       <c r="B31" s="32" t="n">
-        <v>0.985204755614267</v>
-      </c>
-      <c r="D31" s="33"/>
+        <v>98.5204755614267</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
     </row>
@@ -8103,9 +8138,10 @@
         <v>230</v>
       </c>
       <c r="B32" s="32" t="n">
-        <v>0.987318361955086</v>
-      </c>
-      <c r="D32" s="33"/>
+        <v>98.7318361955086</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
     </row>
@@ -8114,9 +8150,10 @@
         <v>231</v>
       </c>
       <c r="B33" s="32" t="n">
-        <v>1.01373844121532</v>
-      </c>
-      <c r="D33" s="33"/>
+        <v>101.373844121532</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
     </row>
@@ -8125,9 +8162,10 @@
         <v>232</v>
       </c>
       <c r="B34" s="32" t="n">
-        <v>1.03725231175694</v>
-      </c>
-      <c r="D34" s="33"/>
+        <v>103.725231175694</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
     </row>
@@ -8136,9 +8174,10 @@
         <v>233</v>
       </c>
       <c r="B35" s="32" t="n">
-        <v>0.92443857331572</v>
-      </c>
-      <c r="D35" s="33"/>
+        <v>92.443857331572</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
     </row>
@@ -8147,9 +8186,10 @@
         <v>234</v>
       </c>
       <c r="B36" s="32" t="n">
-        <v>1.04280052840159</v>
-      </c>
-      <c r="D36" s="33"/>
+        <v>104.280052840159</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
     </row>
@@ -8158,9 +8198,10 @@
         <v>235</v>
       </c>
       <c r="B37" s="32" t="n">
-        <v>0.945046235138705</v>
-      </c>
-      <c r="D37" s="33"/>
+        <v>94.5046235138705</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="34"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
     </row>
@@ -8169,9 +8210,10 @@
         <v>236</v>
       </c>
       <c r="B38" s="32" t="n">
-        <v>0.987846763540291</v>
-      </c>
-      <c r="D38" s="33"/>
+        <v>98.7846763540291</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="34"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
     </row>
@@ -8180,9 +8222,10 @@
         <v>237</v>
       </c>
       <c r="B39" s="32" t="n">
-        <v>1.23725231175694</v>
-      </c>
-      <c r="D39" s="33"/>
+        <v>123.725231175694</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="34"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
     </row>
@@ -8191,9 +8234,10 @@
         <v>238</v>
       </c>
       <c r="B40" s="32" t="n">
-        <v>1.03751651254954</v>
-      </c>
-      <c r="D40" s="33"/>
+        <v>103.751651254954</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="34"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
     </row>
@@ -8202,9 +8246,10 @@
         <v>239</v>
       </c>
       <c r="B41" s="32" t="n">
-        <v>0.997093791281374</v>
-      </c>
-      <c r="D41" s="33"/>
+        <v>99.7093791281374</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
@@ -8213,9 +8258,10 @@
         <v>240</v>
       </c>
       <c r="B42" s="32" t="n">
-        <v>0.898811096433289</v>
-      </c>
-      <c r="D42" s="33"/>
+        <v>89.8811096433289</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
     </row>
@@ -8224,9 +8270,10 @@
         <v>241</v>
       </c>
       <c r="B43" s="32" t="n">
-        <v>1.03513870541612</v>
-      </c>
-      <c r="D43" s="33"/>
+        <v>103.513870541612</v>
+      </c>
+      <c r="C43" s="33"/>
+      <c r="D43" s="34"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
     </row>
@@ -8235,9 +8282,10 @@
         <v>242</v>
       </c>
       <c r="B44" s="32" t="n">
-        <v>0.901717305151915</v>
-      </c>
-      <c r="D44" s="33"/>
+        <v>90.1717305151915</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="34"/>
       <c r="E44" s="13"/>
       <c r="F44" s="13"/>
     </row>
@@ -8246,9 +8294,10 @@
         <v>243</v>
       </c>
       <c r="B45" s="32" t="n">
-        <v>0.900660501981506</v>
-      </c>
-      <c r="D45" s="33"/>
+        <v>90.0660501981506</v>
+      </c>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
       <c r="E45" s="13"/>
       <c r="F45" s="13"/>
     </row>
@@ -8257,9 +8306,10 @@
         <v>244</v>
       </c>
       <c r="B46" s="32" t="n">
-        <v>1.12470277410832</v>
-      </c>
-      <c r="D46" s="33"/>
+        <v>112.470277410832</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="34"/>
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
     </row>
@@ -8268,9 +8318,10 @@
         <v>245</v>
       </c>
       <c r="B47" s="32" t="n">
-        <v>1.00924702774108</v>
-      </c>
-      <c r="D47" s="33"/>
+        <v>100.924702774108</v>
+      </c>
+      <c r="C47" s="33"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="13"/>
       <c r="F47" s="13"/>
     </row>
@@ -8279,9 +8330,10 @@
         <v>246</v>
       </c>
       <c r="B48" s="32" t="n">
-        <v>0.947952443857332</v>
-      </c>
-      <c r="D48" s="33"/>
+        <v>94.7952443857332</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
       <c r="E48" s="13"/>
       <c r="F48" s="13"/>
     </row>
@@ -8290,9 +8342,10 @@
         <v>247</v>
       </c>
       <c r="B49" s="32" t="n">
-        <v>1.33157199471598</v>
-      </c>
-      <c r="D49" s="33"/>
+        <v>133.157199471598</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
     </row>
@@ -8301,9 +8354,10 @@
         <v>248</v>
       </c>
       <c r="B50" s="32" t="n">
-        <v>0.958784676354029</v>
-      </c>
-      <c r="D50" s="33"/>
+        <v>95.8784676354029</v>
+      </c>
+      <c r="C50" s="33"/>
+      <c r="D50" s="34"/>
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
     </row>
@@ -8312,9 +8366,10 @@
         <v>249</v>
       </c>
       <c r="B51" s="32" t="n">
-        <v>0.957199471598415</v>
-      </c>
-      <c r="D51" s="33"/>
+        <v>95.7199471598415</v>
+      </c>
+      <c r="C51" s="33"/>
+      <c r="D51" s="34"/>
       <c r="E51" s="13"/>
       <c r="F51" s="13"/>
     </row>
@@ -8323,9 +8378,10 @@
         <v>250</v>
       </c>
       <c r="B52" s="32" t="n">
-        <v>1.0449141347424</v>
-      </c>
-      <c r="D52" s="33"/>
+        <v>104.49141347424</v>
+      </c>
+      <c r="C52" s="33"/>
+      <c r="D52" s="34"/>
       <c r="E52" s="13"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -8338,6 +8394,7 @@
       <c r="B53" s="28" t="s">
         <v>252</v>
       </c>
+      <c r="C53" s="33"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8386,7 +8443,7 @@
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="30"/>
-      <c r="K2" s="34"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
@@ -8398,7 +8455,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="30"/>
-      <c r="K3" s="34"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
@@ -8410,7 +8467,7 @@
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="34"/>
+      <c r="K4" s="35"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
@@ -8422,7 +8479,7 @@
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
       <c r="J5" s="30"/>
-      <c r="K5" s="34"/>
+      <c r="K5" s="35"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
@@ -8434,7 +8491,7 @@
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="34"/>
+      <c r="K6" s="35"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
@@ -8446,7 +8503,7 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="30"/>
-      <c r="K7" s="34"/>
+      <c r="K7" s="35"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
@@ -8458,7 +8515,7 @@
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
       <c r="J8" s="30"/>
-      <c r="K8" s="34"/>
+      <c r="K8" s="35"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
@@ -8470,7 +8527,7 @@
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
       <c r="J9" s="30"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="35"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
@@ -8482,7 +8539,7 @@
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
       <c r="J10" s="30"/>
-      <c r="K10" s="34"/>
+      <c r="K10" s="35"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
@@ -8494,7 +8551,7 @@
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
       <c r="J11" s="30"/>
-      <c r="K11" s="34"/>
+      <c r="K11" s="35"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
@@ -8506,7 +8563,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
       <c r="J12" s="30"/>
-      <c r="K12" s="34"/>
+      <c r="K12" s="35"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
@@ -8529,7 +8586,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
       <c r="J14" s="30"/>
-      <c r="K14" s="34"/>
+      <c r="K14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
@@ -8541,7 +8598,7 @@
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
       <c r="J15" s="30"/>
-      <c r="K15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
@@ -8553,7 +8610,7 @@
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="30"/>
-      <c r="K16" s="34"/>
+      <c r="K16" s="35"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
@@ -8565,7 +8622,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="30"/>
-      <c r="K17" s="34"/>
+      <c r="K17" s="35"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
@@ -8577,7 +8634,7 @@
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="30"/>
-      <c r="K18" s="34"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
@@ -8589,7 +8646,7 @@
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
       <c r="J19" s="30"/>
-      <c r="K19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
@@ -8601,7 +8658,7 @@
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
       <c r="J20" s="30"/>
-      <c r="K20" s="34"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
@@ -8613,7 +8670,7 @@
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="34"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
@@ -8625,7 +8682,7 @@
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
       <c r="J22" s="30"/>
-      <c r="K22" s="34"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="25" t="s">
@@ -8637,7 +8694,7 @@
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
       <c r="J23" s="30"/>
-      <c r="K23" s="34"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="25" t="s">
@@ -8649,7 +8706,7 @@
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="34"/>
+      <c r="K24" s="35"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="25" t="s">
@@ -8661,7 +8718,7 @@
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
       <c r="J25" s="30"/>
-      <c r="K25" s="34"/>
+      <c r="K25" s="35"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="25" t="s">
@@ -8673,7 +8730,7 @@
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="30"/>
-      <c r="K26" s="34"/>
+      <c r="K26" s="35"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="25" t="s">
@@ -8685,7 +8742,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="34"/>
+      <c r="K27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="25" t="s">
@@ -8697,7 +8754,7 @@
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="34"/>
+      <c r="K28" s="35"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="25" t="s">
@@ -8709,7 +8766,7 @@
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
       <c r="J29" s="30"/>
-      <c r="K29" s="34"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="25" t="s">
@@ -8721,7 +8778,7 @@
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
       <c r="J30" s="30"/>
-      <c r="K30" s="34"/>
+      <c r="K30" s="35"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="25" t="s">
@@ -8733,7 +8790,7 @@
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
       <c r="J31" s="30"/>
-      <c r="K31" s="34"/>
+      <c r="K31" s="35"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="25" t="s">
@@ -8745,7 +8802,7 @@
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
       <c r="J32" s="30"/>
-      <c r="K32" s="34"/>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="25" t="s">
@@ -8757,7 +8814,7 @@
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
       <c r="J33" s="30"/>
-      <c r="K33" s="34"/>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="25" t="s">
@@ -8769,7 +8826,7 @@
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
       <c r="J34" s="30"/>
-      <c r="K34" s="34"/>
+      <c r="K34" s="35"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
@@ -8781,7 +8838,7 @@
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
       <c r="J35" s="30"/>
-      <c r="K35" s="34"/>
+      <c r="K35" s="35"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
@@ -8793,7 +8850,7 @@
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
       <c r="J36" s="30"/>
-      <c r="K36" s="34"/>
+      <c r="K36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="25" t="s">
@@ -8805,7 +8862,7 @@
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
       <c r="J37" s="30"/>
-      <c r="K37" s="34"/>
+      <c r="K37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="25" t="s">
@@ -8817,7 +8874,7 @@
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
       <c r="J38" s="30"/>
-      <c r="K38" s="34"/>
+      <c r="K38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="25" t="s">
@@ -8829,7 +8886,7 @@
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
       <c r="J39" s="30"/>
-      <c r="K39" s="34"/>
+      <c r="K39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="25" t="s">
@@ -8841,7 +8898,7 @@
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
       <c r="J40" s="30"/>
-      <c r="K40" s="34"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="25" t="s">
@@ -8853,7 +8910,7 @@
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
       <c r="J41" s="30"/>
-      <c r="K41" s="34"/>
+      <c r="K41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="25" t="s">
@@ -8865,7 +8922,7 @@
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
       <c r="J42" s="30"/>
-      <c r="K42" s="34"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
@@ -8877,7 +8934,7 @@
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
       <c r="J43" s="30"/>
-      <c r="K43" s="34"/>
+      <c r="K43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="25" t="s">
@@ -8889,7 +8946,7 @@
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
       <c r="J44" s="30"/>
-      <c r="K44" s="34"/>
+      <c r="K44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="25" t="s">
@@ -8901,7 +8958,7 @@
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="30"/>
-      <c r="K45" s="34"/>
+      <c r="K45" s="35"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="25" t="s">
@@ -8913,7 +8970,7 @@
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="30"/>
-      <c r="K46" s="34"/>
+      <c r="K46" s="35"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="25" t="s">
@@ -8925,7 +8982,7 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="30"/>
-      <c r="K47" s="34"/>
+      <c r="K47" s="35"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="25" t="s">
@@ -8937,7 +8994,7 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="30"/>
-      <c r="K48" s="34"/>
+      <c r="K48" s="35"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="25" t="s">
@@ -8949,7 +9006,7 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="30"/>
-      <c r="K49" s="34"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="25" t="s">
@@ -8961,7 +9018,7 @@
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="30"/>
-      <c r="K50" s="34"/>
+      <c r="K50" s="35"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="25" t="s">
@@ -8973,7 +9030,7 @@
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="30"/>
-      <c r="K51" s="34"/>
+      <c r="K51" s="35"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="25" t="s">
@@ -8984,7 +9041,7 @@
       </c>
       <c r="I52" s="29"/>
       <c r="J52" s="30"/>
-      <c r="K52" s="34"/>
+      <c r="K52" s="35"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
@@ -9022,10 +9079,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>257</v>
       </c>
     </row>
@@ -9033,7 +9090,7 @@
       <c r="A2" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="36" t="n">
+      <c r="B2" s="37" t="n">
         <v>1195</v>
       </c>
     </row>
@@ -9041,7 +9098,7 @@
       <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="36" t="n">
+      <c r="B3" s="37" t="n">
         <v>1395</v>
       </c>
     </row>
@@ -9049,7 +9106,7 @@
       <c r="A4" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="36" t="n">
+      <c r="B4" s="37" t="n">
         <v>1995</v>
       </c>
     </row>
@@ -9057,7 +9114,7 @@
       <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36" t="n">
+      <c r="B5" s="37" t="n">
         <v>1095</v>
       </c>
     </row>
@@ -9065,7 +9122,7 @@
       <c r="A6" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="36" t="n">
+      <c r="B6" s="37" t="n">
         <v>1115</v>
       </c>
     </row>
@@ -9073,7 +9130,7 @@
       <c r="A7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="36" t="n">
+      <c r="B7" s="37" t="n">
         <v>1375</v>
       </c>
     </row>
@@ -9081,7 +9138,7 @@
       <c r="A8" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="36" t="n">
+      <c r="B8" s="37" t="n">
         <v>1165</v>
       </c>
     </row>
@@ -9089,7 +9146,7 @@
       <c r="A9" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="36" t="n">
+      <c r="B9" s="37" t="n">
         <v>1140</v>
       </c>
     </row>
@@ -9097,7 +9154,7 @@
       <c r="A10" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="36" t="n">
+      <c r="B10" s="37" t="n">
         <v>1200</v>
       </c>
     </row>
@@ -9105,13 +9162,13 @@
       <c r="A11" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="37"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="36" t="n">
+      <c r="B12" s="37" t="n">
         <v>1350</v>
       </c>
     </row>
@@ -9119,7 +9176,7 @@
       <c r="A13" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="B13" s="36" t="n">
+      <c r="B13" s="37" t="n">
         <v>1295</v>
       </c>
     </row>
@@ -9127,7 +9184,7 @@
       <c r="A14" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="36" t="n">
+      <c r="B14" s="37" t="n">
         <v>1295</v>
       </c>
     </row>
@@ -9135,7 +9192,7 @@
       <c r="A15" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="36" t="n">
+      <c r="B15" s="37" t="n">
         <v>1715</v>
       </c>
     </row>

--- a/app/data/EV_list_USA.xlsx
+++ b/app/data/EV_list_USA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Cars" sheetId="1" state="visible" r:id="rId2"/>
@@ -1435,8 +1435,8 @@
   </sheetPr>
   <dimension ref="A1:K1041"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D56" activeCellId="0" sqref="D56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F54" activeCellId="0" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3034,7 +3034,7 @@
         <v>37</v>
       </c>
       <c r="E68" s="10" t="n">
-        <v>3610</v>
+        <v>36100</v>
       </c>
       <c r="F68" s="11"/>
     </row>
@@ -3304,7 +3304,7 @@
         <v>37</v>
       </c>
       <c r="E83" s="10" t="n">
-        <v>0</v>
+        <v>49900</v>
       </c>
       <c r="F83" s="11"/>
     </row>
@@ -3322,7 +3322,7 @@
         <v>37</v>
       </c>
       <c r="E84" s="10" t="n">
-        <v>0</v>
+        <v>52100</v>
       </c>
       <c r="F84" s="11"/>
     </row>
@@ -7752,7 +7752,7 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K34" activeCellId="0" sqref="K34"/>
     </sheetView>
   </sheetViews>
